--- a/va_facility_data_2025-02-20/Alexandria VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Alexandria%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Alexandria VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Alexandria%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R9105e4c6e93641c4bb9c169d5b2f334e"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rc202fce24a0f4348b1b057b67a57cc83"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R4592700332e94275841b0f128a96fa98"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R93a75f5f728943ae88bfad601e2c4791"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R4aab26d082d140f6b7f1afca7ac9f07c"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R88b13ee19c4745f7a565550ec36aa185"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rf7922279638b411cacb506774cb9b9a3"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R8c8ac00933b545fa8c8ee6c317e4dc2e"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R94a1046b8f314a5dbd20c4d930fcfde1"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rc90ac9bc114e40ffb84f4785e4d96ed8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rb2a3e4163e7e449baf8643ac7be45b49"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R874069f0ba9d405d8b8044f1f68cec20"/>
   </x:sheets>
 </x:workbook>
 </file>
